--- a/wikiimages/Puzzle-7.xlsx
+++ b/wikiimages/Puzzle-7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -595,7 +595,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -1601,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="B2:I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/wikiimages/Puzzle-7.xlsx
+++ b/wikiimages/Puzzle-7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -595,7 +595,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -654,8 +654,8 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="X"/>
-    <tableColumn id="2" name="Y"/>
+    <tableColumn id="1" name="Y"/>
+    <tableColumn id="2" name="X"/>
     <tableColumn id="3" name="PIECE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,10 +962,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>31</v>
@@ -1858,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
